--- a/RiderReg23/StatsBySimplifiedRoute2.xlsx
+++ b/RiderReg23/StatsBySimplifiedRoute2.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jeremyrodriguez/Desktop/PMC Github/RiderReg23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16B0E9D9-5F88-8B47-B367-89D683C6E79D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC792C60-E374-1C46-9B71-8085222BC3AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="26580" windowHeight="16360" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2023" sheetId="2" r:id="rId1"/>
+    <sheet name="2023" sheetId="3" r:id="rId1"/>
     <sheet name="2022" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Route</t>
   </si>
@@ -95,7 +95,13 @@
     <t>Saturday Only</t>
   </si>
   <si>
-    <t>Showing 1 to 8 of 8 entries, 10 total columns</t>
+    <t>Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Average Raised </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Median Raised </t>
   </si>
 </sst>
 </file>
@@ -104,7 +110,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="185" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -132,19 +138,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Lucida Grande"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Lucida Grande"/>
       <family val="2"/>
     </font>
@@ -170,7 +178,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -184,28 +192,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="185" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -510,484 +518,328 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7F34ABA-FA45-DB4E-9EA4-497706251E2A}">
-  <dimension ref="A1:L32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4807EE-C46A-F847-8C3F-7F66D7B576F8}">
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.1640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="18" customWidth="1"/>
-    <col min="5" max="5" width="18" style="3" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" customWidth="1"/>
-    <col min="7" max="7" width="23.83203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
-    <col min="9" max="9" width="15" customWidth="1"/>
-    <col min="10" max="10" width="21.83203125" style="3" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C1" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="14">
+        <v>631</v>
+      </c>
+      <c r="C2" s="15">
+        <v>4842</v>
+      </c>
+      <c r="D2" s="15">
+        <v>2642</v>
+      </c>
+      <c r="E2" s="16">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="11">
-        <v>631</v>
-      </c>
-      <c r="C2" s="20">
-        <v>4841.7139999999999</v>
-      </c>
-      <c r="D2" s="17">
-        <v>2642.16</v>
-      </c>
-      <c r="E2" s="12">
-        <v>8.7559430000000003</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="F2" s="17">
         <v>0.13</v>
       </c>
-      <c r="G2" s="14">
+      <c r="G2" s="18">
         <v>44999</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="17">
         <v>0.54</v>
       </c>
-      <c r="I2" s="13">
+      <c r="I2" s="17">
         <v>0.56999999999999995</v>
       </c>
-      <c r="J2" s="12">
-        <v>2015.2439999999999</v>
-      </c>
-      <c r="K2" s="9"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="J2" s="16">
+        <v>2015</v>
+      </c>
+      <c r="K2" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="11">
+      <c r="B3" s="14">
         <v>2246</v>
       </c>
-      <c r="C3" s="20">
-        <v>11357.424000000001</v>
-      </c>
-      <c r="D3" s="17">
-        <v>7690.65</v>
-      </c>
-      <c r="E3" s="12">
-        <v>10.303341</v>
-      </c>
-      <c r="F3" s="13">
+      <c r="C3" s="15">
+        <v>11357</v>
+      </c>
+      <c r="D3" s="15">
+        <v>7691</v>
+      </c>
+      <c r="E3" s="16">
+        <v>10</v>
+      </c>
+      <c r="F3" s="17">
         <v>0.09</v>
       </c>
-      <c r="G3" s="14">
+      <c r="G3" s="18">
         <v>44944</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="17">
         <v>0.78</v>
       </c>
-      <c r="I3" s="13">
+      <c r="I3" s="17">
         <v>0.78</v>
       </c>
-      <c r="J3" s="12">
-        <v>2013.6969999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="J3" s="16">
+        <v>2014</v>
+      </c>
+      <c r="K3" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="11">
+      <c r="B4" s="14">
         <v>2644</v>
       </c>
-      <c r="C4" s="20">
-        <v>10263.523999999999</v>
-      </c>
-      <c r="D4" s="17">
-        <v>6606.39</v>
-      </c>
-      <c r="E4" s="12">
-        <v>9.6138429999999993</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="C4" s="15">
+        <v>10264</v>
+      </c>
+      <c r="D4" s="15">
+        <v>6606</v>
+      </c>
+      <c r="E4" s="16">
+        <v>10</v>
+      </c>
+      <c r="F4" s="17">
         <v>0.09</v>
       </c>
-      <c r="G4" s="14">
+      <c r="G4" s="18">
         <v>44953</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="17">
         <v>0.66</v>
       </c>
-      <c r="I4" s="13">
+      <c r="I4" s="17">
         <v>0.77</v>
       </c>
-      <c r="J4" s="12">
-        <v>2014.386</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="J4" s="16">
+        <v>2014</v>
+      </c>
+      <c r="K4" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="11">
+      <c r="B5" s="14">
         <v>2682</v>
       </c>
-      <c r="C5" s="20">
-        <v>12211.785</v>
-      </c>
-      <c r="D5" s="17">
+      <c r="C5" s="15">
+        <v>12212</v>
+      </c>
+      <c r="D5" s="15">
         <v>7855</v>
       </c>
-      <c r="E5" s="12">
-        <v>11.179784</v>
-      </c>
-      <c r="F5" s="13">
+      <c r="E5" s="16">
+        <v>11</v>
+      </c>
+      <c r="F5" s="17">
         <v>0.09</v>
       </c>
-      <c r="G5" s="14">
+      <c r="G5" s="18">
         <v>44940</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="17">
         <v>0.72</v>
       </c>
-      <c r="I5" s="13">
+      <c r="I5" s="17">
         <v>0.8</v>
       </c>
-      <c r="J5" s="12">
-        <v>2012.82</v>
-      </c>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
+      <c r="J5" s="16">
+        <v>2013</v>
+      </c>
+      <c r="K5" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="11">
+      <c r="B6" s="14">
         <v>1417</v>
       </c>
-      <c r="C6" s="20">
-        <v>9601.4670000000006</v>
-      </c>
-      <c r="D6" s="17">
+      <c r="C6" s="15">
+        <v>9601</v>
+      </c>
+      <c r="D6" s="15">
         <v>7150</v>
       </c>
-      <c r="E6" s="12">
-        <v>7.2907549999999999</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="E6" s="16">
+        <v>7</v>
+      </c>
+      <c r="F6" s="17">
         <v>0.08</v>
       </c>
-      <c r="G6" s="14">
+      <c r="G6" s="18">
         <v>44955</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="17">
         <v>0.74</v>
       </c>
-      <c r="I6" s="13">
+      <c r="I6" s="17">
         <v>0.7</v>
       </c>
-      <c r="J6" s="12">
-        <v>2016.7090000000001</v>
-      </c>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="11" t="s">
+      <c r="J6" s="16">
+        <v>2017</v>
+      </c>
+      <c r="K6" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="11">
+      <c r="B7" s="14">
         <v>1164</v>
       </c>
-      <c r="C7" s="20">
-        <v>8109.3130000000001</v>
-      </c>
-      <c r="D7" s="17">
-        <v>4970.8149999999996</v>
-      </c>
-      <c r="E7" s="12">
-        <v>9.5618560000000006</v>
-      </c>
-      <c r="F7" s="13">
+      <c r="C7" s="15">
+        <v>8109</v>
+      </c>
+      <c r="D7" s="15">
+        <v>4971</v>
+      </c>
+      <c r="E7" s="16">
+        <v>10</v>
+      </c>
+      <c r="F7" s="17">
         <v>0.1</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="18">
         <v>44966</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="17">
         <v>0.64</v>
       </c>
-      <c r="I7" s="13">
+      <c r="I7" s="17">
         <v>0.75</v>
       </c>
-      <c r="J7" s="12">
-        <v>2014.4380000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="11" t="s">
+      <c r="J7" s="16">
+        <v>2014</v>
+      </c>
+      <c r="K7" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="11">
+      <c r="B8" s="14">
         <v>439</v>
       </c>
-      <c r="C8" s="20">
-        <v>7344.8649999999998</v>
-      </c>
-      <c r="D8" s="17">
-        <v>3982.16</v>
-      </c>
-      <c r="E8" s="12">
-        <v>11.359909</v>
-      </c>
-      <c r="F8" s="13">
+      <c r="C8" s="15">
+        <v>7345</v>
+      </c>
+      <c r="D8" s="15">
+        <v>3982</v>
+      </c>
+      <c r="E8" s="16">
+        <v>11</v>
+      </c>
+      <c r="F8" s="17">
         <v>0.14000000000000001</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="18">
         <v>44994</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="17">
         <v>0.6</v>
       </c>
-      <c r="I8" s="13">
+      <c r="I8" s="17">
         <v>0.61</v>
       </c>
-      <c r="J8" s="12">
-        <v>2012.64</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
+      <c r="J8" s="16">
+        <v>2013</v>
+      </c>
+      <c r="K8" s="14">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="11">
+      <c r="B9" s="14">
         <v>457</v>
       </c>
-      <c r="C9" s="20">
-        <v>5698.6689999999999</v>
-      </c>
-      <c r="D9" s="17">
+      <c r="C9" s="15">
+        <v>5699</v>
+      </c>
+      <c r="D9" s="15">
         <v>450</v>
       </c>
-      <c r="E9" s="12">
-        <v>10.21663</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="E9" s="16">
+        <v>10</v>
+      </c>
+      <c r="F9" s="17">
         <v>0.12</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="18">
         <v>45047</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="17">
         <v>0.5</v>
       </c>
-      <c r="I9" s="13">
+      <c r="I9" s="17">
         <v>0.6</v>
       </c>
-      <c r="J9" s="12">
-        <v>2013.7829999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
-      <c r="B10" s="15"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-      <c r="B11" s="15"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B12" s="15"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B13" s="15"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B15" s="15"/>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B18" s="9"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="19"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="9"/>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B19" s="9"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="10"/>
-      <c r="C20" s="20"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="14"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B21" s="10"/>
-      <c r="C21" s="20"/>
-      <c r="D21" s="17"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="14"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B22" s="9"/>
-      <c r="C22" s="22" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>2</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>7</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B23" s="9"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B24" s="10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B25" s="10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B26" s="10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B27" s="10">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="10">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B29" s="10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B30" s="10">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B31" s="10">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B32" s="10" t="s">
-        <v>24</v>
+      <c r="J9" s="16">
+        <v>2014</v>
+      </c>
+      <c r="K9" s="14">
+        <v>2023</v>
       </c>
     </row>
   </sheetData>
@@ -997,37 +849,36 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
     <col min="2" max="2" width="17.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.6640625" style="21" customWidth="1"/>
-    <col min="4" max="4" width="22.5" style="21" customWidth="1"/>
+    <col min="3" max="3" width="17.6640625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="8" customWidth="1"/>
     <col min="5" max="5" width="25.5" style="3" customWidth="1"/>
     <col min="6" max="6" width="24.5" customWidth="1"/>
     <col min="7" max="7" width="20.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="7" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="8" max="9" width="21.83203125" customWidth="1"/>
     <col min="10" max="10" width="18.83203125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1039,7 +890,7 @@
       <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
@@ -1048,18 +899,21 @@
       <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>10</v>
       </c>
       <c r="B2">
         <v>607</v>
       </c>
-      <c r="C2" s="21">
+      <c r="C2" s="8">
         <v>4902.1431301482726</v>
       </c>
-      <c r="D2" s="21">
+      <c r="D2" s="8">
         <v>2740</v>
       </c>
       <c r="E2" s="3">
@@ -1080,18 +934,21 @@
       <c r="J2" s="3">
         <v>2014.6573311367381</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>11</v>
       </c>
       <c r="B3">
         <v>2008</v>
       </c>
-      <c r="C3" s="21">
+      <c r="C3" s="8">
         <v>12300.737739043831</v>
       </c>
-      <c r="D3" s="21">
+      <c r="D3" s="8">
         <v>8034.5</v>
       </c>
       <c r="E3" s="3">
@@ -1112,18 +969,21 @@
       <c r="J3" s="3">
         <v>2012.847111553785</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>12</v>
       </c>
       <c r="B4">
         <v>2209</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="8">
         <v>10934.800178813941</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="8">
         <v>7102</v>
       </c>
       <c r="E4" s="3">
@@ -1144,18 +1004,21 @@
       <c r="J4" s="3">
         <v>2012.983703033047</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
       <c r="B5">
         <v>2394</v>
       </c>
-      <c r="C5" s="21">
+      <c r="C5" s="8">
         <v>12827.57840016708</v>
       </c>
-      <c r="D5" s="21">
+      <c r="D5" s="8">
         <v>8675</v>
       </c>
       <c r="E5" s="3">
@@ -1176,18 +1039,21 @@
       <c r="J5" s="3">
         <v>2012.2677527151211</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>14</v>
       </c>
       <c r="B6">
         <v>1139</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="8">
         <v>10178.62744951712</v>
       </c>
-      <c r="D6" s="21">
+      <c r="D6" s="8">
         <v>7375</v>
       </c>
       <c r="E6" s="3">
@@ -1208,18 +1074,21 @@
       <c r="J6" s="3">
         <v>2014.879613356766</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
       <c r="B7">
         <v>957</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="8">
         <v>9391.575997910144</v>
       </c>
-      <c r="D7" s="21">
+      <c r="D7" s="8">
         <v>5336</v>
       </c>
       <c r="E7" s="3">
@@ -1240,18 +1109,21 @@
       <c r="J7" s="3">
         <v>2013.3166144200629</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
       <c r="B8">
         <v>881</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="8">
         <v>7406.7481498297366</v>
       </c>
-      <c r="D8" s="21">
+      <c r="D8" s="8">
         <v>4562</v>
       </c>
       <c r="E8" s="3">
@@ -1272,18 +1144,21 @@
       <c r="J8" s="3">
         <v>2012.8910329171399</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="3">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
       <c r="B9">
         <v>394</v>
       </c>
-      <c r="C9" s="21">
+      <c r="C9" s="8">
         <v>3261.908197969542</v>
       </c>
-      <c r="D9" s="21">
+      <c r="D9" s="8">
         <v>602.5</v>
       </c>
       <c r="E9" s="3">
@@ -1303,6 +1178,9 @@
       </c>
       <c r="J9" s="3">
         <v>2012.581218274112</v>
+      </c>
+      <c r="K9" s="3">
+        <v>2022</v>
       </c>
     </row>
   </sheetData>
